--- a/Computer/CardEdgeConnectorPinout.xlsx
+++ b/Computer/CardEdgeConnectorPinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D66EE7-592E-4858-B1DD-512C4B31F928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B5EB0F-F3AE-4B9F-AEFC-BA3F3454FE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9DE9614-53C5-4C8E-93AB-495B33BF3D0A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Bottom of Card</t>
     <phoneticPr fontId="1"/>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>Printer Related Interrupt?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Daisy Chain Interrupt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -568,8 +572,8 @@
   </sheetPr>
   <dimension ref="C2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C19:C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -975,7 +979,7 @@
     </row>
     <row r="33" spans="3:7">
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1">
         <v>30</v>
@@ -984,7 +988,7 @@
         <v>30</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="3:7">

--- a/Computer/CardEdgeConnectorPinout.xlsx
+++ b/Computer/CardEdgeConnectorPinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B5EB0F-F3AE-4B9F-AEFC-BA3F3454FE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91589F0A-6F2A-4176-A53E-3DD3E515AF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9DE9614-53C5-4C8E-93AB-495B33BF3D0A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Bottom of Card</t>
     <phoneticPr fontId="1"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Data Ready?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Wait State Reset?</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -176,15 +172,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Reset (From Select)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Printer Related Interrupt?</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Daisy Chain Interrupt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Master Reset (MRST)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parity (DBP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Ready (DRDY)?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -572,8 +576,8 @@
   </sheetPr>
   <dimension ref="C2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -659,7 +663,7 @@
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -670,7 +674,7 @@
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -684,7 +688,7 @@
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
@@ -693,12 +697,12 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -707,12 +711,12 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>9</v>
@@ -723,7 +727,7 @@
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
@@ -734,7 +738,7 @@
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1">
         <v>11</v>
@@ -745,7 +749,7 @@
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
         <v>12</v>
@@ -756,7 +760,7 @@
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1">
         <v>13</v>
@@ -765,12 +769,12 @@
         <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>14</v>
@@ -779,12 +783,12 @@
         <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1">
         <v>15</v>
@@ -793,12 +797,12 @@
         <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
         <v>16</v>
@@ -807,12 +811,12 @@
         <v>16</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1">
         <v>17</v>
@@ -823,7 +827,7 @@
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>18</v>
@@ -832,12 +836,12 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1">
         <v>19</v>
@@ -846,12 +850,12 @@
         <v>19</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1">
         <v>20</v>
@@ -860,12 +864,12 @@
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1">
         <v>21</v>
@@ -874,12 +878,12 @@
         <v>21</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1">
         <v>22</v>
@@ -890,7 +894,7 @@
     </row>
     <row r="26" spans="3:7">
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1">
         <v>23</v>
@@ -899,12 +903,12 @@
         <v>23</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1">
         <v>24</v>
@@ -913,12 +917,12 @@
         <v>24</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1">
         <v>25</v>
@@ -927,12 +931,12 @@
         <v>25</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1">
         <v>26</v>
@@ -943,7 +947,7 @@
     </row>
     <row r="30" spans="3:7">
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1">
         <v>27</v>
@@ -952,12 +956,12 @@
         <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1">
         <v>28</v>
@@ -967,6 +971,9 @@
       </c>
     </row>
     <row r="32" spans="3:7">
+      <c r="C32" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D32" s="1">
         <v>29</v>
       </c>
@@ -974,12 +981,12 @@
         <v>29</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="3:7">
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1">
         <v>30</v>
@@ -988,12 +995,12 @@
         <v>30</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:7">
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="1">
         <v>31</v>
@@ -1004,7 +1011,7 @@
     </row>
     <row r="35" spans="3:7">
       <c r="C35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1">
         <v>32</v>
@@ -1015,7 +1022,7 @@
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1">
         <v>33</v>
@@ -1024,7 +1031,7 @@
         <v>33</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="3:7">

--- a/Computer/CardEdgeConnectorPinout.xlsx
+++ b/Computer/CardEdgeConnectorPinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91589F0A-6F2A-4176-A53E-3DD3E515AF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FFF360-0993-40E4-8F11-F333B3AE9A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9DE9614-53C5-4C8E-93AB-495B33BF3D0A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Bottom of Card</t>
     <phoneticPr fontId="1"/>
@@ -65,14 +65,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Read/Write?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Wait State Reset?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Interrupt?</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -89,85 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>D0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
     <t>5MHz Clock</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,7 +101,595 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Data Ready (DRDY)?</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="1"/>
+        <charset val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A4</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A5</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D7</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D6</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D5</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D4</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D0</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A15</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A14</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A13</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A12</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A11</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A10</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A9</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A8</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A6</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WTIN (Initiate Write)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDIN (Initiate Read)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRDY (Data Ready)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APRE (Address Pre-empt)??</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -196,7 +697,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +711,21 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="1"/>
+      <charset val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -235,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +772,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,8 +1095,8 @@
   </sheetPr>
   <dimension ref="C2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -586,7 +1105,7 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="2.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7">
@@ -662,8 +1181,8 @@
       </c>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="2" t="s">
-        <v>13</v>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -673,8 +1192,8 @@
       </c>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="2" t="s">
-        <v>14</v>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -683,12 +1202,12 @@
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="2" t="s">
-        <v>15</v>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
@@ -697,12 +1216,12 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="2" t="s">
-        <v>16</v>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -715,8 +1234,8 @@
       </c>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="2" t="s">
-        <v>17</v>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>9</v>
@@ -726,8 +1245,8 @@
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="2" t="s">
-        <v>18</v>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
@@ -737,8 +1256,8 @@
       </c>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="2" t="s">
-        <v>19</v>
+      <c r="C14" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D14" s="1">
         <v>11</v>
@@ -746,10 +1265,13 @@
       <c r="F14" s="1">
         <v>11</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="2" t="s">
-        <v>20</v>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="1">
         <v>12</v>
@@ -759,8 +1281,8 @@
       </c>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="2" t="s">
-        <v>21</v>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D16" s="1">
         <v>13</v>
@@ -769,12 +1291,12 @@
         <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="2" t="s">
-        <v>22</v>
+      <c r="C17" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="1">
         <v>14</v>
@@ -783,12 +1305,12 @@
         <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="2" t="s">
-        <v>23</v>
+      <c r="C18" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="1">
         <v>15</v>
@@ -797,12 +1319,12 @@
         <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="2" t="s">
-        <v>24</v>
+      <c r="C19" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>16</v>
@@ -811,12 +1333,12 @@
         <v>16</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="2" t="s">
-        <v>25</v>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D20" s="1">
         <v>17</v>
@@ -826,8 +1348,8 @@
       </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="2" t="s">
-        <v>26</v>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="1">
         <v>18</v>
@@ -836,12 +1358,12 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="2" t="s">
-        <v>27</v>
+      <c r="C22" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D22" s="1">
         <v>19</v>
@@ -850,12 +1372,12 @@
         <v>19</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="2" t="s">
-        <v>28</v>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="1">
         <v>20</v>
@@ -864,11 +1386,11 @@
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="1">
@@ -878,12 +1400,12 @@
         <v>21</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="2" t="s">
-        <v>30</v>
+      <c r="C25" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D25" s="1">
         <v>22</v>
@@ -893,8 +1415,8 @@
       </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="2" t="s">
-        <v>31</v>
+      <c r="C26" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D26" s="1">
         <v>23</v>
@@ -903,12 +1425,12 @@
         <v>23</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="2" t="s">
-        <v>32</v>
+      <c r="C27" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D27" s="1">
         <v>24</v>
@@ -917,12 +1439,12 @@
         <v>24</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="2" t="s">
-        <v>33</v>
+      <c r="C28" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D28" s="1">
         <v>25</v>
@@ -931,12 +1453,12 @@
         <v>25</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="2" t="s">
-        <v>34</v>
+      <c r="C29" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D29" s="1">
         <v>26</v>
@@ -946,8 +1468,8 @@
       </c>
     </row>
     <row r="30" spans="3:7">
-      <c r="C30" s="2" t="s">
-        <v>35</v>
+      <c r="C30" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D30" s="1">
         <v>27</v>
@@ -956,12 +1478,12 @@
         <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="2" t="s">
-        <v>36</v>
+      <c r="C31" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D31" s="1">
         <v>28</v>
@@ -972,7 +1494,7 @@
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1">
         <v>29</v>
@@ -981,12 +1503,12 @@
         <v>29</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="3:7">
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1">
         <v>30</v>
@@ -995,12 +1517,12 @@
         <v>30</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="3:7">
       <c r="C34" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1">
         <v>31</v>
@@ -1011,7 +1533,7 @@
     </row>
     <row r="35" spans="3:7">
       <c r="C35" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1">
         <v>32</v>
@@ -1022,7 +1544,7 @@
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
         <v>33</v>
@@ -1031,7 +1553,7 @@
         <v>33</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="3:7">

--- a/Computer/CardEdgeConnectorPinout.xlsx
+++ b/Computer/CardEdgeConnectorPinout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FFF360-0993-40E4-8F11-F333B3AE9A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1B3384-A0A6-4DE1-82DD-F9E701401F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9DE9614-53C5-4C8E-93AB-495B33BF3D0A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Bottom of Card</t>
     <phoneticPr fontId="1"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bank Switch?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5MHz Clock</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -456,240 +452,355 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
+      <t>A14</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A13</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A12</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A11</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A10</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A9</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A8</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A6</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WTIN (Initiate Write)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDIN (Initiate Read)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRDY (Data Ready)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APRE (Address Pre-empt)??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>A15</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A14</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A13</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A12</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A11</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A10</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A9</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A8</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A6</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WTIN (Initiate Write)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RDIN (Initiate Read)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DRDY (Data Ready)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>APRE (Address Pre-empt)??</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="1"/>
+        <charset val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (For MMIO?)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A15 (For RAM)?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A16 (For RAM)?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A17 (For RAM)?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INR0 (Interrupt Request 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INR1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INR3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL0 (Currentl Level 9)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -751,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,11 +881,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,8 +1209,8 @@
   </sheetPr>
   <dimension ref="C2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1109,23 +1223,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="3:7">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="2" t="s">
@@ -1181,8 +1295,8 @@
       </c>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="7" t="s">
-        <v>16</v>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -1192,8 +1306,8 @@
       </c>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="7" t="s">
-        <v>17</v>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -1202,12 +1316,12 @@
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="7" t="s">
-        <v>18</v>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
@@ -1216,12 +1330,12 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="7" t="s">
-        <v>19</v>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -1230,12 +1344,12 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="7" t="s">
-        <v>20</v>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>9</v>
@@ -1245,8 +1359,8 @@
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="7" t="s">
-        <v>21</v>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
@@ -1256,8 +1370,8 @@
       </c>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="7" t="s">
-        <v>39</v>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D14" s="1">
         <v>11</v>
@@ -1266,12 +1380,12 @@
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="7" t="s">
-        <v>38</v>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="1">
         <v>12</v>
@@ -1281,8 +1395,8 @@
       </c>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="7" t="s">
-        <v>37</v>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="1">
         <v>13</v>
@@ -1291,12 +1405,12 @@
         <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="7" t="s">
-        <v>36</v>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="1">
         <v>14</v>
@@ -1305,12 +1419,12 @@
         <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="7" t="s">
-        <v>35</v>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="1">
         <v>15</v>
@@ -1319,12 +1433,12 @@
         <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="7" t="s">
-        <v>34</v>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="1">
         <v>16</v>
@@ -1333,12 +1447,12 @@
         <v>16</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="7" t="s">
-        <v>33</v>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="1">
         <v>17</v>
@@ -1348,8 +1462,8 @@
       </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="7" t="s">
-        <v>32</v>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D21" s="1">
         <v>18</v>
@@ -1358,12 +1472,12 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="7" t="s">
-        <v>31</v>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D22" s="1">
         <v>19</v>
@@ -1372,12 +1486,12 @@
         <v>19</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="7" t="s">
-        <v>30</v>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D23" s="1">
         <v>20</v>
@@ -1386,12 +1500,12 @@
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="7" t="s">
-        <v>29</v>
+      <c r="C24" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D24" s="1">
         <v>21</v>
@@ -1400,12 +1514,12 @@
         <v>21</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="7" t="s">
-        <v>28</v>
+      <c r="C25" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D25" s="1">
         <v>22</v>
@@ -1415,8 +1529,8 @@
       </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="7" t="s">
-        <v>27</v>
+      <c r="C26" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D26" s="1">
         <v>23</v>
@@ -1424,13 +1538,13 @@
       <c r="F26" s="1">
         <v>23</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>10</v>
+      <c r="G26" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="7" t="s">
-        <v>26</v>
+      <c r="C27" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D27" s="1">
         <v>24</v>
@@ -1438,13 +1552,13 @@
       <c r="F27" s="1">
         <v>24</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>10</v>
+      <c r="G27" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="7" t="s">
-        <v>25</v>
+      <c r="C28" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D28" s="1">
         <v>25</v>
@@ -1452,13 +1566,13 @@
       <c r="F28" s="1">
         <v>25</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>10</v>
+      <c r="G28" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="7" t="s">
-        <v>24</v>
+      <c r="C29" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D29" s="1">
         <v>26</v>
@@ -1468,8 +1582,8 @@
       </c>
     </row>
     <row r="30" spans="3:7">
-      <c r="C30" s="7" t="s">
-        <v>23</v>
+      <c r="C30" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D30" s="1">
         <v>27</v>
@@ -1482,8 +1596,8 @@
       </c>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="7" t="s">
-        <v>22</v>
+      <c r="C31" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D31" s="1">
         <v>28</v>
@@ -1494,7 +1608,7 @@
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1">
         <v>29</v>
@@ -1508,7 +1622,7 @@
     </row>
     <row r="33" spans="3:7">
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1">
         <v>30</v>
@@ -1517,12 +1631,12 @@
         <v>30</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="3:7">
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>31</v>
@@ -1533,7 +1647,7 @@
     </row>
     <row r="35" spans="3:7">
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1">
         <v>32</v>
@@ -1553,7 +1667,7 @@
         <v>33</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="3:7">

--- a/Computer/CardEdgeConnectorPinout.xlsx
+++ b/Computer/CardEdgeConnectorPinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1B3384-A0A6-4DE1-82DD-F9E701401F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA68A4C7-E635-493E-BE93-017230E2A851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9DE9614-53C5-4C8E-93AB-495B33BF3D0A}"/>
   </bookViews>
@@ -788,10 +788,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CL0 (Currentl Level 9)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CL1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -801,6 +797,10 @@
   </si>
   <si>
     <t>CL3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL0 (Currentl Level 0)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -884,11 +884,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,7 +1210,7 @@
   <dimension ref="C2:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1223,23 +1223,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="3:7">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="2" t="s">
@@ -1472,7 +1472,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="3:7">
@@ -1486,7 +1486,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="3:7">
@@ -1514,7 +1514,7 @@
         <v>21</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="3:7">
@@ -1538,7 +1538,7 @@
       <c r="F26" s="1">
         <v>23</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       <c r="F27" s="1">
         <v>24</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       <c r="F28" s="1">
         <v>25</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Computer/CardEdgeConnectorPinout.xlsx
+++ b/Computer/CardEdgeConnectorPinout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA68A4C7-E635-493E-BE93-017230E2A851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B071B0D7-D341-459B-9FCA-D7B193A363BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9DE9614-53C5-4C8E-93AB-495B33BF3D0A}"/>
   </bookViews>
@@ -653,154 +653,154 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>DRDY (Data Ready)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APRE (Address Pre-empt)??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="1"/>
+        <charset val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (For MMIO?)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A15 (For RAM)?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A16 (For RAM)?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A17 (For RAM)?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INR0 (Interrupt Request 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INR1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INR3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL0 (Currentl Level 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>RDIN (Initiate Read)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DRDY (Data Ready)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>APRE (Address Pre-empt)??</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="1"/>
-        <charset val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (For MMIO?)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A15 (For RAM)?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A16 (For RAM)?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A17 (For RAM)?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INR0 (Interrupt Request 0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INR1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INR2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INR3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CL1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CL2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CL3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CL0 (Currentl Level 0)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1209,8 +1209,8 @@
   </sheetPr>
   <dimension ref="C2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1316,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="3:7">
@@ -1330,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:7">
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="3:7">
@@ -1380,7 +1380,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="3:7">
@@ -1405,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -1419,7 +1419,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -1433,7 +1433,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -1447,7 +1447,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="3:7">
@@ -1472,7 +1472,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="3:7">
@@ -1486,12 +1486,12 @@
         <v>19</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1">
         <v>20</v>
@@ -1500,7 +1500,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="3:7">
@@ -1514,7 +1514,7 @@
         <v>21</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="3:7">
@@ -1539,7 +1539,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="3:7">
@@ -1553,7 +1553,7 @@
         <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="3:7">
@@ -1567,7 +1567,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="3:7">

--- a/Computer/CardEdgeConnectorPinout.xlsx
+++ b/Computer/CardEdgeConnectorPinout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B071B0D7-D341-459B-9FCA-D7B193A363BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5066D182-656D-4432-A218-710D7432BBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9DE9614-53C5-4C8E-93AB-495B33BF3D0A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Bottom of Card</t>
     <phoneticPr fontId="1"/>
@@ -65,14 +65,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Interrupt?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Interrupt Acknowledge?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Interrupt Passthrough?</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -657,10 +649,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>APRE (Address Pre-empt)??</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -696,78 +684,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A15 (For RAM)?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A16 (For RAM)?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A17 (For RAM)?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INR0 (Interrupt Request 0)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -801,6 +717,98 @@
   </si>
   <si>
     <t>RDIN (Initiate Read)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP46?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APRE (Address Pre-empt)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A15 (For RAM)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A16 (For RAM)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A17 (For RAM)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interrupt Acknowledge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Memory Fault</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interrupt Request</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1209,8 +1217,8 @@
   </sheetPr>
   <dimension ref="C2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1296,7 +1304,7 @@
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -1307,7 +1315,7 @@
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -1316,12 +1324,12 @@
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
@@ -1330,12 +1338,12 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -1344,12 +1352,12 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>9</v>
@@ -1360,7 +1368,7 @@
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
@@ -1368,10 +1376,13 @@
       <c r="F13" s="1">
         <v>10</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1">
         <v>11</v>
@@ -1380,12 +1391,12 @@
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1">
         <v>12</v>
@@ -1396,7 +1407,7 @@
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1">
         <v>13</v>
@@ -1405,12 +1416,12 @@
         <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1">
         <v>14</v>
@@ -1419,12 +1430,12 @@
         <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1">
         <v>15</v>
@@ -1433,12 +1444,12 @@
         <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
         <v>16</v>
@@ -1447,12 +1458,12 @@
         <v>16</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1">
         <v>17</v>
@@ -1463,7 +1474,7 @@
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>18</v>
@@ -1472,12 +1483,12 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1">
         <v>19</v>
@@ -1486,12 +1497,12 @@
         <v>19</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1">
         <v>20</v>
@@ -1500,12 +1511,12 @@
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1">
         <v>21</v>
@@ -1514,12 +1525,12 @@
         <v>21</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
         <v>22</v>
@@ -1530,7 +1541,7 @@
     </row>
     <row r="26" spans="3:7">
       <c r="C26" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1">
         <v>23</v>
@@ -1539,12 +1550,12 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1">
         <v>24</v>
@@ -1553,12 +1564,12 @@
         <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>25</v>
@@ -1567,12 +1578,12 @@
         <v>25</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1">
         <v>26</v>
@@ -1583,7 +1594,7 @@
     </row>
     <row r="30" spans="3:7">
       <c r="C30" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1">
         <v>27</v>
@@ -1592,12 +1603,12 @@
         <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1">
         <v>28</v>
@@ -1605,10 +1616,13 @@
       <c r="F31" s="1">
         <v>28</v>
       </c>
+      <c r="G31" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
         <v>29</v>
@@ -1617,12 +1631,12 @@
         <v>29</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="3:7">
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>30</v>
@@ -1631,12 +1645,12 @@
         <v>30</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="3:7">
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1">
         <v>31</v>
@@ -1647,7 +1661,7 @@
     </row>
     <row r="35" spans="3:7">
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1">
         <v>32</v>
@@ -1658,7 +1672,7 @@
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1">
         <v>33</v>
@@ -1667,7 +1681,7 @@
         <v>33</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="3:7">

--- a/Computer/CardEdgeConnectorPinout.xlsx
+++ b/Computer/CardEdgeConnectorPinout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5066D182-656D-4432-A218-710D7432BBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A5EFE-A208-4DA8-84CB-62DE12BC4EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9DE9614-53C5-4C8E-93AB-495B33BF3D0A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>Bottom of Card</t>
     <phoneticPr fontId="1"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Card Edge Connector Pinout</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GND</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -65,18 +61,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Interrupt Passthrough?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5MHz Clock</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Printer Related Interrupt?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Daisy Chain Interrupt</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -444,102 +432,6 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A14</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A13</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A12</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A11</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>A10</t>
     </r>
     <phoneticPr fontId="1"/>
@@ -649,41 +541,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="1"/>
-        <charset val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (For MMIO?)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INR0 (Interrupt Request 0)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -728,78 +585,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A15 (For RAM)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A16 (For RAM)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A17 (For RAM)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Interrupt Acknowledge</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -809,6 +594,238 @@
   </si>
   <si>
     <t>Interrupt Request</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CA15</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PA14</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PA13</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PA12</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PA11</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PA15 (For RAM)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PA16 (For RAM)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PA17 (For RAM)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-12V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU6 Card Edge Connector Pinout (Slot 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Backplane Card Edge Connector Pinout (Slots 3 - 15)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Daisy Chain Interrupt/GND?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -870,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +914,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,10 +1244,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C2:G39"/>
+  <dimension ref="C2:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1228,30 +1257,50 @@
     <col min="5" max="5" width="2.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="27.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="8"/>
+    <col min="12" max="12" width="2.5" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9" style="8"/>
+    <col min="14" max="14" width="27.875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7">
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="3:14">
+      <c r="C2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="3:14">
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="M3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="3:14">
+      <c r="C4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="3:7">
-      <c r="C3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1260,12 +1309,24 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1274,12 +1335,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="8">
+        <v>2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14">
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -1287,10 +1360,22 @@
       <c r="F6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:7">
+      <c r="G6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -1299,12 +1384,24 @@
         <v>4</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="8">
+        <v>4</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -1312,10 +1409,22 @@
       <c r="F8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="3:7">
+      <c r="G8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="8">
+        <v>5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14">
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -1324,12 +1433,24 @@
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
+        <v>39</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="8">
+        <v>6</v>
+      </c>
+      <c r="M9" s="8">
+        <v>6</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
@@ -1338,12 +1459,24 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
+        <v>29</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="8">
+        <v>7</v>
+      </c>
+      <c r="M10" s="8">
+        <v>7</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14">
       <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -1352,12 +1485,24 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
+        <v>30</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="8">
+        <v>8</v>
+      </c>
+      <c r="M11" s="8">
+        <v>8</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14">
       <c r="C12" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
         <v>9</v>
@@ -1365,10 +1510,22 @@
       <c r="F12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="3:7">
+      <c r="G12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="8">
+        <v>9</v>
+      </c>
+      <c r="M12" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
@@ -1377,12 +1534,24 @@
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
+        <v>58</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="8">
+        <v>10</v>
+      </c>
+      <c r="M13" s="8">
+        <v>10</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14">
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
         <v>11</v>
@@ -1391,12 +1560,24 @@
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
+        <v>41</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="8">
+        <v>11</v>
+      </c>
+      <c r="M14" s="8">
+        <v>11</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14">
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1">
         <v>12</v>
@@ -1404,10 +1585,22 @@
       <c r="F15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="3:7">
+      <c r="G15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="8">
+        <v>12</v>
+      </c>
+      <c r="M15" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14">
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1">
         <v>13</v>
@@ -1416,12 +1609,24 @@
         <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
+        <v>31</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="8">
+        <v>13</v>
+      </c>
+      <c r="M16" s="8">
+        <v>13</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
       <c r="C17" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>14</v>
@@ -1430,12 +1635,24 @@
         <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
+        <v>32</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="8">
+        <v>14</v>
+      </c>
+      <c r="M17" s="8">
+        <v>14</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
       <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1">
         <v>15</v>
@@ -1444,12 +1661,24 @@
         <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
+        <v>33</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="8">
+        <v>15</v>
+      </c>
+      <c r="M18" s="8">
+        <v>15</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
       <c r="C19" s="6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1">
         <v>16</v>
@@ -1458,12 +1687,24 @@
         <v>16</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
+        <v>34</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="8">
+        <v>16</v>
+      </c>
+      <c r="M19" s="8">
+        <v>16</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
       <c r="C20" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1">
         <v>17</v>
@@ -1471,10 +1712,22 @@
       <c r="F20" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
+      <c r="G20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="8">
+        <v>17</v>
+      </c>
+      <c r="M20" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
       <c r="C21" s="6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1">
         <v>18</v>
@@ -1483,12 +1736,24 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
+        <v>38</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="8">
+        <v>18</v>
+      </c>
+      <c r="M21" s="8">
+        <v>18</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
       <c r="C22" s="6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1">
         <v>19</v>
@@ -1497,12 +1762,24 @@
         <v>19</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
+        <v>35</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="8">
+        <v>19</v>
+      </c>
+      <c r="M22" s="8">
+        <v>19</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
       <c r="C23" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1">
         <v>20</v>
@@ -1511,12 +1788,24 @@
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
+        <v>37</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="8">
+        <v>20</v>
+      </c>
+      <c r="M23" s="8">
+        <v>20</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
       <c r="C24" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1">
         <v>21</v>
@@ -1525,12 +1814,24 @@
         <v>21</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
+        <v>37</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="8">
+        <v>21</v>
+      </c>
+      <c r="M24" s="8">
+        <v>21</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
       <c r="C25" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1">
         <v>22</v>
@@ -1538,10 +1839,22 @@
       <c r="F25" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="3:7">
+      <c r="G25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="8">
+        <v>22</v>
+      </c>
+      <c r="M25" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1">
         <v>23</v>
@@ -1550,12 +1863,24 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
+        <v>51</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="8">
+        <v>23</v>
+      </c>
+      <c r="M26" s="8">
+        <v>23</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
       <c r="C27" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1">
         <v>24</v>
@@ -1564,12 +1889,24 @@
         <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
+        <v>52</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="8">
+        <v>24</v>
+      </c>
+      <c r="M27" s="8">
+        <v>24</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
       <c r="C28" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1">
         <v>25</v>
@@ -1578,12 +1915,24 @@
         <v>25</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
+        <v>53</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="8">
+        <v>25</v>
+      </c>
+      <c r="M28" s="8">
+        <v>25</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
       <c r="C29" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1">
         <v>26</v>
@@ -1591,10 +1940,19 @@
       <c r="F29" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="3:7">
+      <c r="J29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="8">
+        <v>26</v>
+      </c>
+      <c r="M29" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
       <c r="C30" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1">
         <v>27</v>
@@ -1603,12 +1961,24 @@
         <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7">
+        <v>44</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="8">
+        <v>27</v>
+      </c>
+      <c r="M30" s="8">
+        <v>27</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
       <c r="C31" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1">
         <v>28</v>
@@ -1617,12 +1987,24 @@
         <v>28</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7">
+        <v>43</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="8">
+        <v>28</v>
+      </c>
+      <c r="M31" s="8">
+        <v>28</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14">
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1">
         <v>29</v>
@@ -1631,12 +2013,24 @@
         <v>29</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="8">
+        <v>29</v>
+      </c>
+      <c r="M32" s="8">
+        <v>29</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="D33" s="1">
         <v>30</v>
@@ -1644,13 +2038,19 @@
       <c r="F33" s="1">
         <v>30</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
+      <c r="G33" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="8">
+        <v>30</v>
+      </c>
+      <c r="M33" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14">
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
         <v>31</v>
@@ -1658,10 +2058,22 @@
       <c r="F34" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="3:7">
+      <c r="G34" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="8">
+        <v>31</v>
+      </c>
+      <c r="M34" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14">
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1">
         <v>32</v>
@@ -1669,10 +2081,22 @@
       <c r="F35" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="C36" s="2" t="s">
-        <v>7</v>
+      <c r="G35" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="8">
+        <v>32</v>
+      </c>
+      <c r="M35" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D36" s="1">
         <v>33</v>
@@ -1680,13 +2104,25 @@
       <c r="F36" s="1">
         <v>33</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7">
+      <c r="G36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="8">
+        <v>33</v>
+      </c>
+      <c r="M36" s="8">
+        <v>33</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14">
       <c r="C37" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
         <v>34</v>
@@ -1695,12 +2131,24 @@
         <v>34</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7">
+        <v>5</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="8">
+        <v>34</v>
+      </c>
+      <c r="M37" s="8">
+        <v>34</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14">
       <c r="C38" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="1">
         <v>35</v>
@@ -1709,12 +2157,24 @@
         <v>35</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7">
+        <v>3</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="8">
+        <v>35</v>
+      </c>
+      <c r="M38" s="8">
+        <v>35</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14">
       <c r="C39" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1">
         <v>36</v>
@@ -1723,17 +2183,32 @@
         <v>36</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>36</v>
+      </c>
+      <c r="M39" s="8">
+        <v>36</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="94" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>